--- a/data/SKO21.xlsx
+++ b/data/SKO21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alffi\Dropbox\skola\2025\RENI\orid25b\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F433267-AAEA-4B59-9FEA-7C5DB9D6B2FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A4333-786C-4FB0-AE39-9DC19BAEB483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22092" windowHeight="9648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,12 +633,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,27 +671,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -919,46 +919,46 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="74" t="s">
+      <c r="I3" s="67"/>
+      <c r="J3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="77" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="74" t="s">
+      <c r="O3" s="64"/>
+      <c r="P3" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="74" t="s">
+      <c r="Q3" s="64"/>
+      <c r="R3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="75"/>
-      <c r="T3" s="76" t="s">
+      <c r="S3" s="64"/>
+      <c r="T3" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="75"/>
+      <c r="U3" s="64"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -969,42 +969,42 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="70">
         <v>44286</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="73">
+      <c r="C4" s="71"/>
+      <c r="D4" s="72">
         <v>44287</v>
       </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="72">
+      <c r="E4" s="73"/>
+      <c r="F4" s="70">
         <v>44287</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="73">
+      <c r="G4" s="71"/>
+      <c r="H4" s="72">
         <v>44306</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="72">
+      <c r="I4" s="73"/>
+      <c r="J4" s="70">
         <v>44322</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="73">
+      <c r="K4" s="71"/>
+      <c r="L4" s="72">
         <v>44334</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="72">
+      <c r="M4" s="73"/>
+      <c r="N4" s="70">
         <v>44334</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="72">
+      <c r="O4" s="71"/>
+      <c r="P4" s="70">
         <v>44369</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="72">
+      <c r="Q4" s="71"/>
+      <c r="R4" s="70">
         <v>44483</v>
       </c>
-      <c r="S4" s="64"/>
+      <c r="S4" s="71"/>
       <c r="T4" s="5"/>
       <c r="U4" s="6"/>
     </row>
@@ -1012,42 +1012,42 @@
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="74">
         <v>49705</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="68">
+      <c r="C5" s="71"/>
+      <c r="D5" s="75">
         <v>22000</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="69">
+      <c r="E5" s="73"/>
+      <c r="F5" s="76">
         <v>22000</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="70">
+      <c r="G5" s="71"/>
+      <c r="H5" s="77">
         <v>7400</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="69">
+      <c r="I5" s="78"/>
+      <c r="J5" s="76">
         <v>2900</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="68">
+      <c r="K5" s="71"/>
+      <c r="L5" s="75">
         <v>3900</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67">
+      <c r="M5" s="73"/>
+      <c r="N5" s="74">
         <v>3900</v>
       </c>
-      <c r="O5" s="64"/>
-      <c r="P5" s="67">
+      <c r="O5" s="71"/>
+      <c r="P5" s="74">
         <v>2600</v>
       </c>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="67">
+      <c r="Q5" s="71"/>
+      <c r="R5" s="74">
         <v>2300</v>
       </c>
-      <c r="S5" s="64"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="5"/>
       <c r="U5" s="6"/>
     </row>
@@ -1055,24 +1055,24 @@
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="64"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="71"/>
       <c r="T6" s="8"/>
       <c r="U6" s="9"/>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="O8" s="15">
         <f>N8/N34</f>
-        <v>2.9496818970503179E-2</v>
+        <v>3.0171563794123449E-2</v>
       </c>
       <c r="P8" s="14">
         <v>55.7</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="U8" s="15">
         <f t="shared" si="1"/>
-        <v>0.12165235095362206</v>
+        <v>0.12172732260069097</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="O9" s="15">
         <f>N9/N34</f>
-        <v>6.4777327935222673E-2</v>
+        <v>6.6259120489055426E-2</v>
       </c>
       <c r="P9" s="14">
         <v>65.099999999999994</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="U9" s="15">
         <f t="shared" si="2"/>
-        <v>0.10810962032292358</v>
+        <v>0.10827426394001612</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="O10" s="15">
         <f>N10/N34</f>
-        <v>7.1717755928282237E-2</v>
+        <v>7.3358311970025653E-2</v>
       </c>
       <c r="P10" s="14">
         <v>47.4</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="U10" s="15">
         <f t="shared" si="3"/>
-        <v>8.4599806834507768E-2</v>
+        <v>8.4782090839145924E-2</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" si="4"/>
-        <v>0.16599190283400811</v>
+        <v>0.16978899625320454</v>
       </c>
       <c r="P11" s="19">
         <f t="shared" si="4"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="U11" s="20">
         <f t="shared" si="5"/>
-        <v>0.31436177811105342</v>
+        <v>0.31478367737985302</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="O12" s="15">
         <f>N12/N34</f>
-        <v>4.7811837285521491E-2</v>
+        <v>4.8905541313350426E-2</v>
       </c>
       <c r="P12" s="14">
         <v>16.55</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="U12" s="15">
         <f t="shared" si="6"/>
-        <v>2.672518836292808E-2</v>
+        <v>2.6846711032686852E-2</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="O13" s="15">
         <f>N13/N34</f>
-        <v>6.1692693271640639E-3</v>
+        <v>6.3103924275290874E-3</v>
       </c>
       <c r="P13" s="14">
         <v>4.8</v>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="U13" s="15">
         <f t="shared" si="7"/>
-        <v>1.6650973743310423E-2</v>
+        <v>1.6666654087795427E-2</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="O14" s="15">
         <f>N14/N34</f>
-        <v>1.5615962984384035E-2</v>
+        <v>1.5973180832183003E-2</v>
       </c>
       <c r="P14" s="14">
         <v>10.5</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="U14" s="15">
         <f t="shared" si="8"/>
-        <v>1.2858262239819574E-2</v>
+        <v>1.289795311179724E-2</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="O15" s="15">
         <f>N15/N34</f>
-        <v>2.0821283979178717E-2</v>
+        <v>2.129757444291067E-2</v>
       </c>
       <c r="P15" s="14">
         <v>3.2</v>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="U15" s="15">
         <f t="shared" si="9"/>
-        <v>1.3749313173389902E-2</v>
+        <v>1.3802234336026785E-2</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="O16" s="27">
         <f t="shared" si="10"/>
-        <v>9.0418353576248306E-2</v>
+        <v>9.2486689015973178E-2</v>
       </c>
       <c r="P16" s="26">
         <f t="shared" si="10"/>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="U16" s="27">
         <f t="shared" si="11"/>
-        <v>6.9983737519447989E-2</v>
+        <v>7.0213552568306317E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="O17" s="15">
         <f>N17/N34</f>
-        <v>9.2924619240408707E-2</v>
+        <v>9.5050285939656878E-2</v>
       </c>
       <c r="P17" s="14">
         <v>31.85</v>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="U17" s="15">
         <f t="shared" si="12"/>
-        <v>5.9303237759943693E-2</v>
+        <v>5.9539422948749046E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="O18" s="15">
         <f>N18/N34</f>
-        <v>7.4416811258916513E-2</v>
+        <v>7.6119108657069626E-2</v>
       </c>
       <c r="P18" s="14">
         <v>0</v>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="U18" s="15">
         <f t="shared" si="13"/>
-        <v>2.3778722710829186E-2</v>
+        <v>2.3967866866179535E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="O19" s="35">
         <f t="shared" si="14"/>
-        <v>0.16734143049932521</v>
+        <v>0.1711693945967265</v>
       </c>
       <c r="P19" s="34">
         <f t="shared" si="14"/>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="U19" s="39">
         <f t="shared" si="15"/>
-        <v>8.3081960470772875E-2</v>
+        <v>8.3507289814928568E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="O20" s="15">
         <f>N20/N34</f>
-        <v>7.5380759591285901E-2</v>
+        <v>7.7105107473871046E-2</v>
       </c>
       <c r="P20" s="14">
         <v>23.85</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="U20" s="15">
         <f t="shared" si="16"/>
-        <v>5.3861613845772267E-2</v>
+        <v>5.4053208054948398E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="O21" s="15">
         <f>N21/N34</f>
-        <v>1.542317331791016E-3</v>
+        <v>1.5775981068822718E-3</v>
       </c>
       <c r="P21" s="14">
         <v>1.3</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="U21" s="15">
         <f t="shared" si="17"/>
-        <v>3.4999132953205431E-3</v>
+        <v>3.5038333814417935E-3</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="O22" s="15">
         <f>N22/N34</f>
-        <v>3.3930981299402349E-2</v>
+        <v>3.4707158351409986E-2</v>
       </c>
       <c r="P22" s="14">
         <v>0</v>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="U22" s="15">
         <f t="shared" si="18"/>
-        <v>2.017551842676563E-2</v>
+        <v>2.0261760321433141E-2</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="O23" s="15">
         <f>N23/N34</f>
-        <v>0.15230383651436283</v>
+        <v>0.15578781305462436</v>
       </c>
       <c r="P23" s="14">
         <v>45.35</v>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="U23" s="15">
         <f t="shared" si="19"/>
-        <v>6.1358488872510719E-2</v>
+        <v>6.1745597376984214E-2</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="O24" s="15">
         <f>N24/N34</f>
-        <v>2.7761711972238288E-2</v>
+        <v>2.8396765923880893E-2</v>
       </c>
       <c r="P24" s="14">
         <v>16.100000000000001</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="U24" s="15">
         <f t="shared" si="20"/>
-        <v>2.4832110167274383E-2</v>
+        <v>2.4902671717456897E-2</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2507,11 +2507,11 @@
         <v>4.6488460899883777E-3</v>
       </c>
       <c r="N25" s="14">
-        <v>2.9</v>
+        <v>-2.9</v>
       </c>
       <c r="O25" s="15">
         <f>N25/N34</f>
-        <v>1.1181800655484865E-2</v>
+        <v>-1.143758627489647E-2</v>
       </c>
       <c r="P25" s="14">
         <v>1.55</v>
@@ -2529,11 +2529,11 @@
       </c>
       <c r="T25" s="17">
         <f t="shared" ref="T25:U25" si="21">AVERAGE(B25,D25,F25,H25,J25,L25,N25,P25,R25)</f>
-        <v>2.8999999999999995</v>
+        <v>2.2555555555555551</v>
       </c>
       <c r="U25" s="15">
         <f t="shared" si="21"/>
-        <v>7.6134540827023922E-3</v>
+        <v>5.1001888682155778E-3</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2742,11 +2742,11 @@
       </c>
       <c r="N28" s="41">
         <f t="shared" si="24"/>
-        <v>188.25</v>
+        <v>182.45</v>
       </c>
       <c r="O28" s="42">
         <f t="shared" si="24"/>
-        <v>0.72585309427414679</v>
+        <v>0.71958193650167623</v>
       </c>
       <c r="P28" s="41">
         <f t="shared" si="24"/>
@@ -2766,11 +2766,11 @@
       </c>
       <c r="T28" s="46">
         <f t="shared" ref="T28:U28" si="25">AVERAGE(B28,D28,F28,H28,J28,L28,N28,P28,R28)</f>
-        <v>272.76666666666665</v>
+        <v>272.12222222222226</v>
       </c>
       <c r="U28" s="42">
         <f t="shared" si="25"/>
-        <v>0.69344697081361995</v>
+        <v>0.69275017550556761</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="O29" s="15">
         <f>N29/N34</f>
-        <v>0.11663774821669558</v>
+        <v>0.1193058568329718</v>
       </c>
       <c r="P29" s="14">
         <v>52.65</v>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="U29" s="15">
         <f t="shared" si="26"/>
-        <v>9.8785932205340765E-2</v>
+        <v>9.9082388718260334E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="O31" s="15">
         <f>N31/N34</f>
-        <v>0.1575091575091575</v>
+        <v>0.16111220666535203</v>
       </c>
       <c r="P31" s="14">
         <v>94.65</v>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="U31" s="15">
         <f t="shared" si="28"/>
-        <v>0.17865397244872808</v>
+        <v>0.17905431124386081</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="O32" s="42">
         <f>N32/N34</f>
-        <v>0.27414690572585304</v>
+        <v>0.28041806349832382</v>
       </c>
       <c r="P32" s="41">
         <f>P29+P30+P31</f>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="U32" s="42">
         <f t="shared" si="29"/>
-        <v>0.30649279330265944</v>
+        <v>0.30718958861071177</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3216,11 +3216,11 @@
       </c>
       <c r="N34" s="55">
         <f t="shared" si="31"/>
-        <v>259.35000000000002</v>
+        <v>253.54999999999998</v>
       </c>
       <c r="O34" s="56">
         <f t="shared" si="31"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="P34" s="55">
         <f t="shared" si="31"/>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="T34" s="59">
         <f t="shared" ref="T34:U34" si="32">AVERAGE(B34,D34,F34,H34,J34,L34,N34,P34,R34)</f>
-        <v>395.53888888888895</v>
+        <v>394.8944444444445</v>
       </c>
       <c r="U34" s="61">
         <f t="shared" si="32"/>
@@ -4217,6 +4217,33 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
@@ -4227,33 +4254,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
